--- a/自然200.xlsx.xlsx
+++ b/自然200.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mugisama/Desktop/HagiQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6D369-6598-5A4C-A9D2-4419AD680B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A735B-0E53-4040-A0CF-228A0FE7FE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{5BAA29A8-4CC2-8346-A067-8C66BCB7BD3C}"/>
   </bookViews>
@@ -32,11 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -1035,22 +1031,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A8EE5-B6EA-A843-98B7-82442A621DFF}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="72.140625" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,39 +1064,33 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44326</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44430</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44459</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44326</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44430</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44459</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1109,22 +1098,19 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1132,22 +1118,19 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1155,37 +1138,37 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1193,19 +1176,19 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -1215,17 +1198,17 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1235,17 +1218,17 @@
       <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -1255,14 +1238,11 @@
       <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/自然200.xlsx.xlsx
+++ b/自然200.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mugisama/Desktop/HagiQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A735B-0E53-4040-A0CF-228A0FE7FE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437A9DD-BF18-574A-8A4F-FAF3BC8FC993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{5BAA29A8-4CC2-8346-A067-8C66BCB7BD3C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="492">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -353,25 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>萩からソウルまで約500㎞、東京まで約800㎞、北京まで約1,500㎞。</t>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">ヤク </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウキョ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t xml:space="preserve">ヤク </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ペキn</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t xml:space="preserve">ヤク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10.海外の有名首都のうち、緯度（南北の位置）が最も萩に近いものはどれ？</t>
     <rPh sb="3" eb="5">
       <t>カイガ</t>
@@ -660,6 +641,6970 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.萩に活火山はある？</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かっていない</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ワカッテイナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笠山は約8800万年前に噴火した活火山である。</t>
+    <rPh sb="3" eb="4">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マンネn</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエニ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フンカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カツカザn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19.見島は火山の噴火によってできたものであるが、いつ頃の火山活動でできた？</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ミシマ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>カザn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約1万年前</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約200万年前</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マンネn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約1200万年前</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>マンネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩からソウルまで約500㎞、東京まで約800㎞、北京まで約1500㎞。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウキョ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ペキn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今から約1200万年前、見島あたりで割れ目噴火が起き、巨大な玄武岩の溶岩大地ができた。その後水面が上がって溶岩台地の大部分が水没し、わずかに水面部分に残った部分が今の見島になった。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>マンネn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワレ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ゲンブガ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ヨウガn</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アガッテ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">ヨウガン </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダイティ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ダイブブn</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>スイボテゥ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ノコッタ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ブブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大島</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鯖島</t>
+    <rPh sb="0" eb="2">
+      <t>サバセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見島</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見島はもっと古い時代の別の火山、鯖島は火山ではなく堆積岩。</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベテゥ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サバシマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>タイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21.萩の沖の島々にも阿武単成火山群に属しているものがある。それはどこ？</t>
+    <rPh sb="3" eb="4">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オキノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シマジマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">アブ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カザングン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゾクシテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24.笠山の麓には風穴がたくさんある。ここから風が出てくるのはいつ？</t>
+    <rPh sb="3" eb="5">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デテクル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏などの暖かい時</t>
+    <rPh sb="0" eb="1">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬などの寒い時</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サムイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寒暖に関わらずいつでも</t>
+    <rPh sb="0" eb="2">
+      <t>カンダn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カカワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風穴は、笠山の溶岩の破片の隙間にできた空間。冬に冷たい外気を溜め込み、夏に冷たい空気を吐き出す。</t>
+    <rPh sb="0" eb="2">
+      <t>カザアナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カサヤマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハヘn</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>クウカn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツメタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指月山</t>
+    <rPh sb="0" eb="3">
+      <t>シヅキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽賀台</t>
+    <rPh sb="0" eb="2">
+      <t>ハガノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見島</t>
+    <rPh sb="0" eb="1">
+      <t>ミシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指月山から切り出された花崗岩。</t>
+    <rPh sb="0" eb="3">
+      <t>シヅキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カコウガn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28.畳ヶ淵と龍鱗郷には変わった形の石が多く並んでいる。それらはどんな形？</t>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リュウリンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゲキリn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カワッタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタティ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26.萩城下の土塀基礎石のうち、白っぽい石はどこで調達されたもの？</t>
+    <rPh sb="3" eb="5">
+      <t>ハギジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ドヘイノ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キソイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シロッポ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イセィ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウタテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円柱</t>
+    <rPh sb="0" eb="2">
+      <t>エンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四角柱</t>
+    <rPh sb="0" eb="3">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>六角柱</t>
+    <rPh sb="0" eb="2">
+      <t>ロッカク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畳ヶ淵も龍鱗郷も、伊良尾山の噴火で吹き出した溶岩が冷えて固まる時に収縮して六角柱の形に割れてできたもので、「柱状節理」とよばれる。</t>
+    <rPh sb="0" eb="1">
+      <t>タタミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゲキリn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ゴウ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イイナオスケ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ヤマ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フンカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フキダセィ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウガn</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒエテカタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウシュク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ロッカク </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハシラ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カタティ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ワレテ</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>チュウジョウセツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31.須佐地域の高山の山頂に、磁石石があるが、それはどんな石？</t>
+    <rPh sb="3" eb="5">
+      <t>スサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンチョウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ジセィア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白っぽい石（砂岩）</t>
+    <rPh sb="0" eb="1">
+      <t>シロッポイイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">サガン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤っぽい石（安山岩）</t>
+    <rPh sb="0" eb="1">
+      <t>アカッポイイス</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>アンザn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒っぽい石（斑れい岩）</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モウコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斑れい岩は、色のついた鉱物をたくさん含んでいるため黒っぽく、また、磁鉄鉱が多い部分に強い磁力を持っている。</t>
+    <rPh sb="0" eb="1">
+      <t>モウコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">イワ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウブテゥ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クロプ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ジテッコ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">オオイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ブブn</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジリョク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32.萩で一番高い山・男岳の高さは何メートル？</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチバn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">タケ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タカサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナンメ-</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>567m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>678m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>789m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内には男岳より西に、これ以上高い山はない。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タケ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニセィ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タカイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33.萩付近にはたくさんの火山があるが、次のうち火山でないものはどれ？</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フキn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カザn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏馬山</t>
+    <rPh sb="0" eb="1">
+      <t>フセル</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ウマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽賀台</t>
+    <rPh sb="0" eb="1">
+      <t>ハガノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田床山</t>
+    <rPh sb="0" eb="3">
+      <t>タトコヤム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田床山は火山ではなく、約１億年前に火山が噴火してできた地層の一部でできている。</t>
+    <rPh sb="0" eb="3">
+      <t>タトコイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チソウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35.阿武川は、萩を代表する川であるが、県内1を誇る点は何か？</t>
+    <rPh sb="3" eb="6">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホコル</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本流の長さ</t>
+    <rPh sb="0" eb="2">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枝分かれを含めた流域面積</t>
+    <rPh sb="0" eb="2">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フクメ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支流の数</t>
+    <rPh sb="0" eb="2">
+      <t>シリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支流が60あり、県内で1位。ちなみに流域面積は県内2位。</t>
+    <rPh sb="0" eb="2">
+      <t>シリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケn</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>リュウイキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>39.長門峡の名前を提唱したのは誰？</t>
+    <rPh sb="3" eb="6">
+      <t>チョウモンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイショウシテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高島北海</t>
+    <rPh sb="0" eb="4">
+      <t>タカシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上剣花坊</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハナ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田初三郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハツサブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつては耶馬溪になぞらえ「長門耶馬溪」と呼ばれていたが、大正９年に画家であり地質学を学んだ高島北海の発案により「長門峡」と改名された。</t>
+    <rPh sb="4" eb="7">
+      <t>ヤバケイ</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ナガト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイセィオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガカ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>チシテゥ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>マナンダ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>タカシマ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホッカイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハツアn</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>チョウモンキョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>43.萩市の一部の海岸で見られる、踏むと「キュッキュッ」と音が鳴る砂をなんという？</t>
+    <rPh sb="3" eb="5">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミラレ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">フムト </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スナヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音砂（おとすな）</t>
+    <rPh sb="0" eb="2">
+      <t>オトス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴砂（なきすな・なりすな）</t>
+    <rPh sb="0" eb="1">
+      <t>ナキスナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>響砂（ひびきすな）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒビキスン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石英の粒が多い、粒の大きさが均一、ごみが少ないなどの条件が揃っていると、踏んだ時に音がする。</t>
+    <rPh sb="0" eb="2">
+      <t>セキエイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンイテゥ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウケn</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ソロッテ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フンダ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44.萩で火災の発生に気を付けなければならないのは、次の気象現象のうちどれ？</t>
+    <rPh sb="3" eb="4">
+      <t>ハギデ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キヲツケ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルニーニョ現象</t>
+    <rPh sb="6" eb="8">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラニーニャ現象</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーン現象</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南からの湿った風が、中国山脈を越える時に高温の乾いた風になって萩に吹いてくるのがフェーン現象。</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シメッタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コエル</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウオn</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カワイタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カゼニナテ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45.黄砂はどこから飛んでくる？</t>
+    <rPh sb="3" eb="5">
+      <t>コウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トンデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市内各地の砂浜</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シナイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクティ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スナハム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄や台湾</t>
+    <rPh sb="0" eb="2">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイワn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国やモンゴル</t>
+    <rPh sb="0" eb="2">
+      <t>チュウゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄砂は中国やモンゴルの砂漠や乾燥地帯の砂埃が、強風で上空に巻き上げられ、日本各地に降り注ぐもの。</t>
+    <rPh sb="0" eb="2">
+      <t>コウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サバク</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スナボコリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウクウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マキアゲ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フリソソグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>46.島根県の市町村で萩市に接していないのは次のうちどこ？</t>
+    <rPh sb="3" eb="6">
+      <t>シマネ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セッシテ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益田市</t>
+    <rPh sb="0" eb="3">
+      <t>マスダセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜田市</t>
+    <rPh sb="0" eb="3">
+      <t>ハマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津和野町</t>
+    <rPh sb="0" eb="4">
+      <t>ツワノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口県の阿武町、山口市、長門市、美祢市と、島根県の益田市、津和野町と接している。</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマグティ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>アブチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヤマグティ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ナガト</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ミネセィ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シマ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>マスダ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ツワノ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>セッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>47.萩の海岸で、海に沈む夕陽を最も見やすい時期はいつ？</t>
+    <rPh sb="3" eb="4">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユウヘ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月下旬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月下旬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月下旬</t>
+    <rPh sb="3" eb="5">
+      <t>ゲジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏至（6月21日頃）に太陽が最も北寄りを通るため、海岸が北西に向いている萩ではこの頃が一番見やすい。</t>
+    <rPh sb="0" eb="1">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イタル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キタヨリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トオル</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイガn</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ムイテ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハギデ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチバn</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50.萩沖の日本海には温かい海流が流れている。それは何という海流？</t>
+    <rPh sb="3" eb="5">
+      <t>ハギオ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイリュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガレ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ナントイウ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親潮</t>
+    <rPh sb="0" eb="2">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本海流</t>
+    <rPh sb="0" eb="4">
+      <t>ニホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対暖流</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツシマ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ダンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対馬海流ともいう。九州と朝鮮半島の間の対馬海峡を通って日本海へ流れ込み、萩の沖を通ってさらに北へと流れていく。</t>
+    <rPh sb="0" eb="4">
+      <t>ツシマカイル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>チョウセn</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツシマ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">カイキョウ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トオッテ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナガレコミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トオッテ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キタヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51.萩沖を通る暖流は、一般には黒潮から枝分かれしたものと考えられているが、その黒潮はどこの海で誕生する？</t>
+    <rPh sb="3" eb="5">
+      <t>ハギオキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダンリュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッパn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エダワカレシテ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カンガエラレ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>タンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九州の沖</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄の沖</t>
+    <rPh sb="0" eb="1">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィリピンの沖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒潮はフィリピン沖で誕生し、日本に向かって北上する。</t>
+    <rPh sb="0" eb="2">
+      <t>クロシオハ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>53.萩の大地は山がちで険しいのに対し、海底は平らである。このような平らな海底を何という？</t>
+    <rPh sb="3" eb="4">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイティ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤマガティ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケワシイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タイセィ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイテ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タイラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイテ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大陸棚</t>
+    <rPh sb="0" eb="2">
+      <t>タイリク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">タナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底台地</t>
+    <rPh sb="0" eb="2">
+      <t>カイテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海盆</t>
+    <rPh sb="0" eb="2">
+      <t>カイボn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩の海底は、ユーラシア大陸の沿岸から続く日本海付近で最大級の大陸棚の一部である。</t>
+    <rPh sb="2" eb="4">
+      <t>カイテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エンガn</t>
+    </rPh>
+    <rPh sb="20" eb="25">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイリク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">タナ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>54.萩の海底はどのようになっている？</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハギノ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ砂地だらけ</t>
+    <rPh sb="2" eb="4">
+      <t>スナティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂地の所々に岩礁がある</t>
+    <rPh sb="0" eb="2">
+      <t>スナティ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トコロドコロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩礁だらけでごつごつ</t>
+    <rPh sb="0" eb="2">
+      <t>ガンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩沖の海底はほぼ砂地で、所々に「瀬」といわれる岩礁がある。瀬の多くは火山の噴火によってできたものである。</t>
+    <rPh sb="3" eb="5">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トコロドコロ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">セ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">セ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>フンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55.日本海の萩と瀬戸内海の防府とでは、潮の満ち引きにどのような違いがある？</t>
+    <rPh sb="3" eb="6">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>セト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミチヒキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩の方が大きく満ち引きする</t>
+    <rPh sb="0" eb="1">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオキク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防府の方が大きく満ち引きする</t>
+    <rPh sb="0" eb="2">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオキク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらも変わらない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本海と違い、瀬戸内海はすぐ近くを陸に囲まれ、水深が浅い。そのため、月・太陽の引力による潮の満ち引きが増幅されやすい。</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンカイトテ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">カコマレ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アサイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>インリョク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">シオ </t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミチヒキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゾウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>56.赤潮とは、海の中であるものが異常に増えて海が変色して見える現象である。あるものとは？</t>
+    <rPh sb="3" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤土</t>
+    <rPh sb="0" eb="2">
+      <t>アカツティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランクトン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅の粉末</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ドウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フンマテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤潮とは海水中の栄養分が増加するなどの原因により、特定のプランクトンが異常に増えてジャイ水が変色して見える現象で、萩近海でも春を中心にときどき発生する。</t>
+    <rPh sb="0" eb="2">
+      <t>アカセィ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンイn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘn</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キンカイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>チュウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57.日本各地に磯や浅海で起こっている、岩場の海藻が激減したり姿を消したりする現象は何？</t>
+    <rPh sb="3" eb="7">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">イソ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコッテ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">イワバ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲキゲn</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ケセィ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯痩せ</t>
+    <rPh sb="0" eb="2">
+      <t>イソヤセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯荒れ</t>
+    <rPh sb="0" eb="1">
+      <t>イソアレ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">アレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯焼け</t>
+    <rPh sb="0" eb="2">
+      <t>イソヤケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯焼けが続くと、海の環境が悪化したり、海藻を餌や住処としている生物が減るなどの影響が起こる。</t>
+    <rPh sb="0" eb="2">
+      <t>イソヤケ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヅク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>エサ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイブテゥ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヘル</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>58.萩の海岸でも見られるプラスチック製の飲料ボトルが分解されて自然界に無害になるまで何年かかる？</t>
+    <rPh sb="3" eb="4">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミラレ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>インリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シゼn</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ムガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナンネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約4年</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約45年</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約450年</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるデータによると、ごみが微生物によって分解され自然界に影響を与えなくなるまでに、プラスチック瓶は約450年、釣り糸は約600年かかるという。</t>
+    <rPh sb="13" eb="16">
+      <t>ビセイブテゥ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>シゼn</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタエ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ビn</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ツリイト</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>61.役2〜1.5万年前の萩は寒かった。このことは萩の地下から植物に関連した何が見つかったことで判明した？</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>マンネn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハギハサ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">チカ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショクブテゥ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンレn</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミツカッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花粉</t>
+    <rPh sb="0" eb="2">
+      <t>カフn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋もれ木</t>
+    <rPh sb="0" eb="1">
+      <t>ウモレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花粉は保護物質で包まれているため、酸素のない地層に何万年も腐らないまま残っている。そのため、地層から見つかった花粉の種類を調べ、その植物により当時の環境を知ることができる。</t>
+    <rPh sb="0" eb="2">
+      <t>カフn</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツツマレ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ナンマn</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ノコッテ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>チソウカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ミツカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>シラベ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>トウジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62.萩の「市の木」に指定されているのは次のうちどれ？</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シノキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒノキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツバキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「市の木」はヒノキとマツ。ツバキとハギは「市の花」。そのほか、夏みかんは「市の果樹」に指定されている。</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">シノ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>k</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">シ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ハナ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">シノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カジュ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>63.「萩といえば夏みかん」と言われるが、夏みかんの源樹はどこにある？</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イワレ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミナモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩市堀内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩市笠山</t>
+    <rPh sb="0" eb="1">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カサヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長門市青海島</t>
+    <rPh sb="0" eb="3">
+      <t>ナガト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">アオ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江戸時代の中頃に西本於長が大日比に流れ着いた果実の種を植えたのが始まりとされ、今でも大日比に原樹が残っている。</t>
+    <rPh sb="0" eb="4">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">オ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オオヒビ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガレ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カジテゥ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハジマリ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オオキイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒニ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ゲンボク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ノコッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64.夏みかんはさまざまな名前で呼ばれるが、標準和名は何？</t>
+    <rPh sb="3" eb="4">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ヒョウジュn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">ナニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏みかん（夏蜜柑）</t>
+    <rPh sb="5" eb="8">
+      <t>ナツミカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナツカン（夏柑）</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ナツカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナツダイダイ（夏橙・夏代々）</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ナツダイダイ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏みかんという呼び方は、明治半ばに大阪の問屋の勧めで「夏蜜柑」という商品名が付けられ、それが一般にも広がった。</t>
+    <rPh sb="0" eb="1">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨビカタ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヤタイ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ススメ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ショウヒn</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツケラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70.「長門ユズキチ」の愛称で親しまれているみかん科の植物の原産地はどこ？</t>
+    <rPh sb="4" eb="6">
+      <t>ナガト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シタシマレ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショクブテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長門市仙崎</t>
+    <rPh sb="0" eb="3">
+      <t>ナガト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩市川上地域</t>
+    <rPh sb="0" eb="2">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カワカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩市田万川地域</t>
+    <rPh sb="0" eb="1">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タマガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆずとみかんの性質を併せ持った品種。一つの身からたくさんの果汁がとれ、刺身を食べるときに醤油に付け加えると美味。</t>
+    <rPh sb="7" eb="9">
+      <t>セイシテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アワセモt</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒンセィウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒトテゥ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミカラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カジュ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サシミ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウユ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツケクワエ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ビミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>73.ミドリヨシノは、ソメイヨシノと比較してどのような特徴がある？</t>
+    <rPh sb="27" eb="29">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花びらが緑色</t>
+    <rPh sb="0" eb="1">
+      <t>ハナビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミドリイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がくが緑色</t>
+    <rPh sb="3" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雄しべが緑色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オシベ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソメイヨシノは花びらが薄桃色で、がく（花びらを支える所）が紅色。ミドリヨシノは花びらが白色でがくが緑色のため、遠くから見ると梨の花のように見える。</t>
+    <rPh sb="7" eb="8">
+      <t>ハナビ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハナビ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ササエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ベニイロ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハナビラ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>トオク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ミル</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナシ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>76.むつみ地区にある県指定天然記念物「辻山のシダレザクラ」の樹齢は何年？</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ケン </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="19">
+      <t>テンネn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツジヤマ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュレイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナンネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約100年</t>
+    <rPh sb="0" eb="2">
+      <t>ヤク１0</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約200年</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>200</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約300年</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「辻山のシダレザクラ」の樹形は、樹高15.8m、主幹の目通り幹囲は226cm、樹齢は300年とされている。</t>
+    <rPh sb="0" eb="1">
+      <t>「</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ツジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>メドオリ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンブ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジュレイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80.萩市内に江戸時代からの松の古木が多かったものの、現在かなり現象している松の種類は何？</t>
+    <rPh sb="3" eb="6">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>エドジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フルキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオカッタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>マテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカマツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロマツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラマツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩は県内でも特にクロマツが多いところだったが、松食い虫や、一説では環境汚染などの影響もあり、松枯れが進んでいる。</t>
+    <rPh sb="2" eb="4">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオイト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>マテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッセテゥ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">カレ </t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ススンデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83.三見地区にはバクチの木と呼ばれる全国有数の巨木がある。この名前の由来は？</t>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ゼンコクユ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョボク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博打に勝った姿</t>
+    <rPh sb="0" eb="2">
+      <t>バクティ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆竹のように弾ける様子</t>
+    <rPh sb="0" eb="2">
+      <t>バクティ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハジケル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博打に負けた姿</t>
+    <rPh sb="0" eb="2">
+      <t>バクティ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樹皮が大きく剥がれる様子を、博打に負けたものが「身ぐるみを剥がされる様子」に例えて名付けられた。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオキク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マケタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミグルミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハガサレ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タトエテ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナヅケラレテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>84.萩市内に、あるバラ（イバラ）の一種が世界で初めて発見され、名前の由来となった場所がある。それはどこ？</t>
+    <rPh sb="3" eb="6">
+      <t>ハギセィ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッセィウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハジメ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ユライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笠山</t>
+    <rPh sb="0" eb="2">
+      <t>カサヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏馬山</t>
+    <rPh sb="0" eb="1">
+      <t>フセル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ヤマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昭和14年ごろ、萩の博物学者が見島小学校の教員と連絡をとりつつ発見したもので、ミシマノイバラと名付けられた。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハクブテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウイn</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハッケn</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>87.大井地区羽賀に県内最大のカゴノキがある。その名前の由来は？</t>
+    <rPh sb="3" eb="5">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ハガ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ユライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>籠の材料にしていた</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カゴ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿の子の模様がある</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シカ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神仏の御加護がある</t>
+    <rPh sb="0" eb="2">
+      <t>シンブテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">ゴカゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦茶色の幹の樹皮が剥がれると、白いマダラ模様に見える。これが鹿の幼獣の模様に似ていることから、鹿の子の木、「鹿子の木（カゴノキ）」と呼ばれるようになった。</t>
+    <rPh sb="0" eb="3">
+      <t>コゲティア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ミキ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュヒ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モヨウニ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミエル</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シカノ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨウジュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ニテイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シカノ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コノキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヨバレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>88.リュウキュウエノキの日本最大級の巨樹があるのは、萩の沖のどこ？</t>
+    <rPh sb="13" eb="18">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">キョジュ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羽島</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハジマ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫃島</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リュウキュウエノキは沖縄に多い木で、南からの海流の影響を受ける九州から見島にかけて点々と見られる。</t>
+    <rPh sb="10" eb="12">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミナミカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイリュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キュウシュウカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ミシマ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>テンテn</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>94.田床山に、虫を捕らえる食虫植物イシモチソウが生えている。この名前の由来は？</t>
+    <rPh sb="3" eb="6">
+      <t>タトコヤマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ムセィ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トラエ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ショクチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハエテ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ユライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茎の中に石がある</t>
+    <rPh sb="0" eb="1">
+      <t>クキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粘着物質が出て石がくっつく</t>
+    <rPh sb="0" eb="4">
+      <t>ネンチャク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デテ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石のような実をもつ</t>
+    <rPh sb="0" eb="1">
+      <t>イシノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イシモチソウは葉から粘着物質を出して小さな昆虫をくっつけて捕らえ、栄養にする。粘着物質は強力で、分泌したところに小石がくっつくこともあるため、その名がついた。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハカラ </t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ネンチャク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダシテ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チイサナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トラエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>エイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ネンチャク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブッシテゥ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ブンピ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コイセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>95.笠山に寒冷地性のシダのコタニワタリやホソイノデが自生している。それらは笠山のどこに生えている？</t>
+    <rPh sb="3" eb="5">
+      <t>カサヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンレイテ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジセイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハエテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風穴のまわり</t>
+    <rPh sb="0" eb="2">
+      <t>フウケテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山頂の火口のまわり</t>
+    <rPh sb="0" eb="2">
+      <t>サンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎ヶ崎の海辺</t>
+    <rPh sb="0" eb="1">
+      <t>トラガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笠山は全体として萩の他の地域と同じく温暖だが、風穴のまわりだけは夏でも涼しいため、寒冷地帯のシダが自生している。</t>
+    <rPh sb="0" eb="1">
+      <t>カサヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オンダンデ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フウケツノ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スズセィ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>カンレイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>97.笠山虎ヶ崎周辺にある池で本当にある池の名前はどれ？</t>
+    <rPh sb="3" eb="5">
+      <t>カサヤマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トラガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウヘンニアル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビ池</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコ池</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイ池</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池の水に岩の隙間を通った海水が混じり、潮の干満のように、水面が上下する。周辺にはシバナやイワタイゲキなどの塩水を好む植物も見られる。</t>
+    <rPh sb="0" eb="1">
+      <t>イケノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イワノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スキマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トオッタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイスイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マジリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">シオ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カンチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">マン </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スイメn</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウヘn</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>エンスイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コノム</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ミラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>99.近年萩には元々生息していなかったオオカナダモという水草が阿武川で繁殖している。これはどこから来たものか？</t>
+    <rPh sb="3" eb="5">
+      <t>キンネn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハギニハ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スイソ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国内の関東地方</t>
+    <rPh sb="0" eb="2">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カントウチホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東南アジア</t>
+    <rPh sb="0" eb="2">
+      <t>トウナンアジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南アメリカ</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカナダモは南アメリカ原産。理科の実験や観賞用として国内に持ち込まれたが、何らかの理由で野外に放されたものと考えられる。</t>
+    <rPh sb="7" eb="8">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンサn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リカノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッケn</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カンショウヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モチコマ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナンラカノリイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヤガイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハナサレタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カンガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101.日本各地で春頃にホンダワラなどの海藻がちぎれて浮かび、漂流してよその海岸運ばれる。このような海藻を何という？</t>
+    <rPh sb="4" eb="8">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハルゴロニ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウカビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウリュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ハコバレ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナントイウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流れ藻</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ナガレモ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡り藻</t>
+    <rPh sb="0" eb="1">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">モ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漂い藻</t>
+    <rPh sb="0" eb="1">
+      <t>タダヨイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">モ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流れ藻は様々な幼魚などの住処になりながら海流に乗って各地に運ばれるので、南の海の生物が萩にやってくる「方舟」の役割を果たしている。</t>
+    <rPh sb="0" eb="1">
+      <t>ナガレ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">モ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">サマザマ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ノッテ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクティ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハコバレ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイブテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハコブネ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ハタセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102.ワカメは萩で春の食材として重宝されているが、その葉で一番新しい部分はどこ？</t>
+    <rPh sb="8" eb="9">
+      <t>ハギデ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ハ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチバn</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラセィ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ブブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に伸びた葉の先端</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ハノ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に広がった葉の両端</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根本近く</t>
+    <rPh sb="0" eb="3">
+      <t>ネモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワカメの成長帯は茎と葉の境界部にあたるため、根本に近いほど新しい。逆に先端ほど古く、痛んだり破れたりしていることが多い。</t>
+    <rPh sb="4" eb="7">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クキテ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウカイセn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ブ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ネモト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタラセィ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センタn</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イタンダ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヤブレ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オオイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103.萩の沿岸に生えている、寒天や心太の材料となる海藻はどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エンガn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハエテ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンテn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トコロテn</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒジキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テングサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準名はマクサで、萩にはたくさん見られる。日光で干してさらし、白くなったものを煮溶かして寒天や心太を作る。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジュn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホシテサラ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニトカセィ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンテn</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トコロテn</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツクル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104.萩でよく食べられる海藻で、漢字で「水雲」と書くものは何？</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">モズク </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワカメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モヅク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モヅクは、ホンダワラなどの大きな階層にくっつくため、「藻付く」と呼ばれるなど名前の由来に諸説があるが、漢字では「水雲」と書かれる。</t>
+    <rPh sb="13" eb="14">
+      <t>オオキナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モツク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナマエノユ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショセテゥ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">モヅク </t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カカレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>105.江戸時代の文献にも記され、かつては阿武川の岸辺などに生息指していたが、今では全く見られなくなってしまった動物は？</t>
+    <rPh sb="4" eb="8">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンケn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シルサレ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キシベ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>マッタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アライグマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオサンショウウオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニホンカワウソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江戸時代にはニホンカワウソが萩を含む県内各地の川辺や岸辺に生息していた。明治以降に毛皮の採取や河川の改修などにより絶滅したとされる。</t>
+    <rPh sb="0" eb="1">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フクム</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクティ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キセィ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">サイシュ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t xml:space="preserve">カワ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ゼツメテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107.水溜まりの上にせり出した木の枝に、ケーキに使うメレンゲのような泡の卵塊をぶら下げるカエルはどれ？</t>
+    <rPh sb="4" eb="6">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カタマリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トノサマガエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モリアオガエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニホンヒキガエル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モリアオガエルは日本固有のカエル。モリアオガエルが生息して行くことができる、湖沼の周りに雑木林があるような環境が減ってきている。</t>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ニホンコユウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">コショウ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>マワリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ザテゥ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハヤセィ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヘッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108.イシガメやクサガメは日本各地に分布しているが、天然記念物に指定されている生息地が萩にある。それはどこ？</t>
+    <rPh sb="14" eb="18">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="27" eb="32">
+      <t>テンネn</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>テンネn</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩城跡の堀</t>
+    <rPh sb="0" eb="1">
+      <t>ハギジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大井川の中流</t>
+    <rPh sb="0" eb="2">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">カワ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見島のため池</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本土にも生息するイシガメやクサガメが、離島である見島にも生息していることが、見島はかつて本土と陸続きだったことを裏付ける貴重な証拠となり、国の天然記念物に指定された。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンドン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リトウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイソクシテ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リクツヅキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キチョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ショウコ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="71" eb="76">
+      <t>テンネn</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110.萩を含む日本本土の野山で見られるヘビのうち、マムシ以外で毒があるのはどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギヲフクム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>h</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ノヤマデ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミラレ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマカガシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シマヘビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アオダイショウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマカガシは昔は無毒とされていたが、後に強い毒があることが分かった。</t>
+    <rPh sb="6" eb="7">
+      <t>ムカセィ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムドク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノチニツヨイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">ワカッタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>112.木から木へと飛び移り、各地で「天狗」に例えられている動物が萩にもいるが、それは何？</t>
+    <rPh sb="4" eb="5">
+      <t>キカラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクティ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タトエラレテ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウブテゥ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムササビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオコオモリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナガザル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムササビはリスに近い哺乳類。かつて椿地区で目撃されたり椿東地区で捕獲されたことがあり、現在でも広い森が続くしない各地の山地や寺社林などに生息していると考えられている。</t>
+    <rPh sb="8" eb="9">
+      <t>チカイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ホニュウル</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツバキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モクゲキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツバキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒガセィ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チントウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒロイモリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サンティ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>カンガエラレテイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>114.むつみ地域や田万川地域でクマが出没することがあるが、その種類は？</t>
+    <rPh sb="10" eb="13">
+      <t xml:space="preserve">タマガワ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツボツス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツキノワグマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒグマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツキノワグマとヒグマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツキノワグマによる獣害が生じているが、近年広葉樹の伐採や交通事故などにより、数が減っている。ヒグマは日本では北海道にしか生息していない。</t>
+    <rPh sb="9" eb="11">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショウジテ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンネn</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バッサイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ホッカイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>115.須佐の高山のふもとの地層から、約1500万年前の生物の化石が発見された。それは何？</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">スサノ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウヤマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チソウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>マンネn</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイブテゥ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カセキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハッケn</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐竜</t>
+    <rPh sb="0" eb="2">
+      <t>キョウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンモナイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウミガメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スサガメと命名し学会に発表された。日本でウミガメの化石が見つかったことはほとんどないため貴重な発見となった。</t>
+    <rPh sb="5" eb="7">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガッカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カセキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミツカッタ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>117.次の島々のうち、渡り鳥の中継地として全国に知られている島はどこ？</t>
+    <rPh sb="4" eb="5">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大島</t>
+    <rPh sb="0" eb="1">
+      <t>オオシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相島</t>
+    <rPh sb="0" eb="2">
+      <t>アイシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶海の孤島の見島は、対馬や舳倉島と共に格好の休憩地になっている。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ミシマ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ツシマ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヘグラジマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120.阿武川の流域などで見られるハヤブサは、遠くからでもオスメスが見分けられる。それはどんな点？</t>
+    <rPh sb="4" eb="7">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トオク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ミワケラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メスの方が大きい</t>
+    <rPh sb="5" eb="6">
+      <t>オオキイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オスの方が足の指が長い</t>
+    <rPh sb="5" eb="6">
+      <t>アシノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オスは胸の模様が横しま</t>
+    <rPh sb="3" eb="4">
+      <t>ムネノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨコシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猛禽類タカ科は普通メスがオスよりも大きく、ハヤブサにおいても同じ。萩では笠山などでも崖で繁殖している。</t>
+    <rPh sb="0" eb="3">
+      <t>モウキn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオキク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハギデ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カサヤマ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t xml:space="preserve">ガケ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>121.川上地域に時々飛んでくるオジロワシは、ある国の「国鳥」とされている。その国はどこ？</t>
+    <rPh sb="4" eb="6">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキドキトンデ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロシア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンゴル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カザフスタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オジロワシはシベリアやモンゴルなどのユーラシア北部で生まれ育つが、冬は大地が凍るため日本に渡ってくる。川上地区では以前から時々観測されている。</t>
+    <rPh sb="23" eb="25">
+      <t>ホクブ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウマレ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ダイチガ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コオル</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニホンン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ワタッテク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カワカミ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イゼn</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>124.ツバメは東南アジアから萩までに約200kmを飛んでやってくる。その体重は約何g？</t>
+    <rPh sb="8" eb="10">
+      <t>トウナンアジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハギマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トンデ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナングラム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100g </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重わずか25gの小鳥が、何千kmもの距離を飛んで渡ってくる。春に日本に渡来し、雛の餌となる昆虫がたくさん発生する稲作の時期に合わせて巣作りをする。</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コトリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナンゼn</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トンデ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワタッテク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トライ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ヒナノ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>エサ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アワセ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>スヅクリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125.萩の漁港などでウミネコという鳥をよく見かけるが、その名前の由来は？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギョコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫のような声で鳴く</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ナク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>餌をめぐって猫と争う</t>
+    <rPh sb="0" eb="1">
+      <t>エサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネズミをよく捕らえて食べる</t>
+    <rPh sb="6" eb="7">
+      <t>トラエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫のように「ミャーオ、ミャーオ」と鳴くためその名がついた。海辺に住む日本を代表する中型のカモメの仲間。</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ナク </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スム</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>126.冬になると萩市内の市街地や人里で多く見られるようになる鳥はどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ハギシナイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スズメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩市内ではカラスやスズメが多く見られるが、冬になるとバンやオオバンなどの水鳥が多く見られる。</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オオク </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミラレ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128.笠山のふもとにある明神池には、主にどんな魚が住んでいる？</t>
+    <rPh sb="4" eb="6">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモニ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイやフナなどの淡水魚</t>
+    <rPh sb="8" eb="11">
+      <t>タンスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サケやアユなどの川と海を行き来する魚</t>
+    <rPh sb="8" eb="9">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イキキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイやエイなどの海水魚</t>
+    <rPh sb="8" eb="11">
+      <t>カイスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明神池は、笠山と本土の間に砂洲ができて陸続きになっていた時に埋め残された池。溶岩の隙間を通じて海と繋がっているため、海水魚が住んでいる。</t>
+    <rPh sb="0" eb="3">
+      <t>ミョウジn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カサヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">サス </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウメ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウガn</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>スキマ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツウジテ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツナガッテ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>カイスイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スンデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129.萩には昔から深海魚がしばしば出没するが、「深海魚」とは水質何mより深い海に住む魚のこと？</t>
+    <rPh sb="10" eb="13">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツボツスル</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>スイシテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">フカイ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水深200mより深い海を「深海」と言う。萩の海は大陸棚が広がっているため水深が200m内にも関わらず、リュウグウノツカイやシャチブリなどの深海魚がしばしば出没する不思議な海として知られている。</t>
+    <rPh sb="0" eb="2">
+      <t>スイシn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>タイリクダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒロガッテ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スイシn</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナイニ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シュツボツスル</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>フシギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>132.萩の名産「焼きぬき蒲鉾」の主な原料となっている魚はどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤキヌキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カマボコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イワシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エソは砂地に伏せたり潜んだりし、カニや貝などを襲って食べる。焼きぬき蒲鉾にはエソの他、キダイも使用されることがある。</t>
+    <rPh sb="3" eb="5">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フセタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒソンダ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヤキヌ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>134.萩のブランド魚のアマダイは生きている時どのような生活をしている？</t>
+    <rPh sb="10" eb="11">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイカツヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群れをなして海面近くを回遊している</t>
+    <rPh sb="0" eb="1">
+      <t>ムレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイメn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩に生えた海藻の間に潜む</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒソム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底の砂に巣穴を掘って潜む</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スナニスア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底の砂に巣穴を掘って顔だけを出してひそみ、目の前を通るエビやカニなどを襲って食べる。</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スアナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホッテ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダセィ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メノ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオル</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>136.見島の沖で、以前は大きなクロマグロが釣れたこともあり、今も全国的に有名な釣りポイントはどこ？</t>
+    <rPh sb="4" eb="6">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イゼn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオキナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツレタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イマモ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖ノ磯</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オキノ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イソ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八里ヶ瀬</t>
+    <rPh sb="0" eb="2">
+      <t>８リ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">セ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千里ヶ瀬</t>
+    <rPh sb="0" eb="2">
+      <t>センリガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">セ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八里ヶ瀬は見島の北にある海底の山で、対馬暖流が当たって潮の流れが複雑になる。そのため、海水が混ぜられてプランクトンがたくさん発生し好漁場となっている。</t>
+    <rPh sb="0" eb="2">
+      <t>8r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">セ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミシマノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キタニ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ツシマ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタッテ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナガレガ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フクザテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイスイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>マゼラレ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ギョギョウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>バセィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>137.冬場に萩で出回ることがある、3~4kgのクロマグロの子どもはなんとよばれる？</t>
+    <rPh sb="4" eb="6">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デマワル</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼてこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さしご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よこわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3~4kgの若い魚は頭を上にした時に横に輪をかけたような縞があるため「よこわ（横輪）」とよばれる。</t>
+    <rPh sb="6" eb="7">
+      <t>ワカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨコニ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ワヲ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">シマ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ヨコワ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>138.はぎでもよく獲れるマグロやイワシなどの「青魚」にとくに含まれ、肥満や認知症の予防に効くと話題になっている物質は何？</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">トレル </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">フクマレ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒマn</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ニn</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヨボウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ブッシテゥ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドコサヘキサエン酸の略で、魚の脂に多く含まれている。脳を活性化させたり、視力を良くしたり、中性脂肪を抑えるのに効くとされている。</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">サン </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フクマレテイル</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シリョク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨクシタリ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>チュウセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オサエ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>141.萩で「金太郎」と呼ばれるヒメジは、不思議な技を使う。それは何？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギデ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワザヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に襲われると電気を発生する</t>
+    <rPh sb="0" eb="1">
+      <t>テキニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オソワレ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッセイスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粘液で風船を作りその中で眠る</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ツクリ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネムル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒゲを使って餌を探し当てる</t>
+    <rPh sb="6" eb="7">
+      <t>エサヲ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サガセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒメジはあごから2本のヒゲが生えている。そのヒゲには味を感じる器官がついていて、ヒゲで海底をさぐって砂に潜んでいるエビなどの餌を感知することができる。</t>
+    <rPh sb="14" eb="15">
+      <t>ハエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">カンジル </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キカn</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>エサ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">カンチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>142.萩沖の砂底で獲れる次の魚のうち、目が体の左側に寄っているのはどれ？</t>
+    <rPh sb="4" eb="6">
+      <t>ハギオキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トレル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ガワ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">ヨッテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソウハチ（キツネガレイ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒラメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンコウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「左ヒラメ右カレイ」というように、目のある側を上、腹を手前にして魚を置いたとき、頭が左にあればヒラメ類、右ならカレイ類（例外あり）。</t>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メノアルガ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ガワ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オイタ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ミギナラカル</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>146.萩の海にも時々現れ、大量をもたらす「福の神」としてありがたがられている大きな魚は？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フクノカミ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オオキナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジンベエザメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロマグロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オニイトマキエイ（マンタ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通は体調4~7m、最大で14mにもなる世界最大の魚。プランクトンなどを食べるおとなしいサメで、周りに小魚が身を守るため群がり、それを追ってカツオなどがやってくる。</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>マワリ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コザカナ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ミヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>147.萩近海にたくさん生息しているが、かつて吉田松陰が食べないと決意していた魚は？</t>
+    <rPh sb="4" eb="7">
+      <t>ハギキ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケツイシテ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アマダイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田松陰は、河豚（ふぐ）の味に惑わされ毒にあたって命を落とすのは武士の名折れであるから、自分はフグを食べないと「河豚を食わざるの説」を記している。</t>
+    <rPh sb="0" eb="4">
+      <t>ヨシダショウイn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">フグ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アジニ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マドワサレ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イノティ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オトスノ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブシノ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナオレ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジブンハフグ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">フグ </t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t xml:space="preserve">クワザル </t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>セテゥ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>148.近年萩の海で「沖縄の県魚」とされている魚が目撃されることがある。その魚は？</t>
+    <rPh sb="4" eb="7">
+      <t>キンネn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンギョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モクゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カツオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タカサゴ（グルクン）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンガワラハギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体長20cmほどの青く美しい魚で、死ぬと赤に変わる。熱帯の海に多いが対馬暖流も影響の強い見島や相島近海で近年ダイバーに目撃されたり漁獲されることがある。</t>
+    <rPh sb="0" eb="1">
+      <t>タイチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウツクセィ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シヌ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カワル</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ネッタイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツシマ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ダンリュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>アイシマ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キンカイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キンネn</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モクゲキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ギョカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>149.萩の早春の風物詩となっている四つ手網漁で獲る魚は？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハヤイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ハル </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フウブテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ヨテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">トル </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シロウオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シロウオは体長4~5cmほどのハゼ科の魚。酢醤油（すいち）につけて活きたまま食べる「おどり食い」が有名。</t>
+    <rPh sb="5" eb="7">
+      <t>タイチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>スジョウユ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">イキ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タベル</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ユウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>152.阿武川や田万川の上流に、海に下ることなく居ついたままのマスがいるが、それはなんと呼ばれる？</t>
+    <rPh sb="4" eb="7">
+      <t>アブガワ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>タマグ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クダル</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">イツイタ </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨバレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アマゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニジマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サクラマスというマスの一種は、川で生まれて海に下り、再び川へと戻ってくる。しかし、同じサクラマスでも川にそのまま居つく陸封型がヤマメとよばれる。</t>
+    <rPh sb="11" eb="13">
+      <t>イッセィウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カワデ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウマレ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>クダリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フタタビ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カワヘ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カワニ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">イツク </t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>リク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>156.萩を代表する海産物の一つ、アワビは貝類であるが、何の仲間の貝？</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カイサンブテゥ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒトテゥ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイルイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ナンノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巻き貝</t>
+    <rPh sb="0" eb="1">
+      <t>マキガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二枚貝</t>
+    <rPh sb="0" eb="3">
+      <t>ニマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巻き貝と二枚貝</t>
+    <rPh sb="0" eb="1">
+      <t>マキガイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アワビの貝殻はよく見ると端の方が巻いているので、「殻口の広い巻き貝」である。</t>
+    <rPh sb="4" eb="6">
+      <t>カイガラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハシノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホウガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マイテ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">カラ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クティ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒロイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>マキガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>160.萩の海で見つけることのできるタカラガイ（別名コヤスガイ）はかつて古代中国で人類初の何として使われた？</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハギノ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミツケ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ベテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>チュウゴク</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ジンルイハテゥ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナント</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカワレタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印鑑</t>
+    <rPh sb="0" eb="2">
+      <t>インカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢尻</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貨幣</t>
+    <rPh sb="0" eb="2">
+      <t>カヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タカラガイにも色々な種類があるが、特にキイロガイという種類は貨幣として使われただけでなく、「貝」都いう漢字のモデルにもなった。お金に関した漢字に「貝」の部首が使われるのもこれが理由。</t>
+    <rPh sb="7" eb="8">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トクニ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カヘイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>トイウカンジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カンセィ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t xml:space="preserve">カイ </t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ブセィウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ツカワレル</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>165.冬、萩にの浜辺には白くて優雅なアオイガイの殻が漂着することがある。そのアオイガイの正体は？</t>
+    <rPh sb="4" eb="5">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハマ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シロク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">カラ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウチャク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巻き貝の仲間</t>
+    <rPh sb="4" eb="6">
+      <t>ナカム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコの仲間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イカの仲間</t>
+    <rPh sb="3" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界中の暖かい海を泳いで暮らすカイダコというタコの一種。メスが自分の卵を保育するために殻を作り、中に入ったまま泳いで暮らしている。オスは非常に小さく、殻を作らない。</t>
+    <rPh sb="0" eb="1">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタタカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヨイフ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クラス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イッセィウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジブn</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カラヲ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ツクリ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハイッタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オヨイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>チイサク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>カラヲ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツクラナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>166.須佐地域で「須佐男命（みこと）いか」としてブランド化され人気を呼んでいるイカは、何という種類？</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">スサ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">スサ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イノティ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨンデ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナント</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スルメイカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アオリイカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケンサキイカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケンサキイカは日本各地でも獲れるが、須佐ではこのイカの真の魅力を伝えようと、手釣りで漁を行い活きたまま出荷している。</t>
+    <rPh sb="7" eb="11">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トレル</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">スサ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シンノミリョク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツタエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">テヅリ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イキタママ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>169.春に萩の海岸に現れ、「海鹿」「海牛」とよばれるアメフラシは、触るとどんなことを起こす？</t>
+    <rPh sb="4" eb="5">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハギノ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイガンニア</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">シカ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サワル</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒い墨を吐く</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">スミ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫色の液を出す</t>
+    <rPh sb="0" eb="2">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白いひものようなものをたくさん出す</t>
+    <rPh sb="0" eb="1">
+      <t>シロイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に襲われると紫色の液を出す。巻き貝の仲間で、体に内部に小さな貝殻の名残がある。</t>
+    <rPh sb="0" eb="1">
+      <t>テキニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オソワレ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マキガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チイサナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>170.萩三角州の南橋の松本川と橋本川が交わる太鼓湾ではシジミが獲れる。それはどんなシジミ？</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サンカクス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>マツム</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ハシモト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マジワル</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイコ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワンガn</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トレル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琵琶湖原産のセタシジミ</t>
+    <rPh sb="0" eb="5">
+      <t>ビワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手のひらサイズのヒルキシジミ</t>
+    <rPh sb="0" eb="1">
+      <t>テノヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汽水にすむヤマトシジミ</t>
+    <rPh sb="0" eb="2">
+      <t>キスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水が太鼓湾にまで遡って侵入している。そのためここは宍道湖（しんじこ）などで有名な海水と淡水が混ざった「汽水」にすむシジミが生息している。</t>
+    <rPh sb="0" eb="2">
+      <t>カイスイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">タイコ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ワン </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニマデサカノボテ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>シn</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイスイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タンスイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>マザッタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キスイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>173.萩の磯ではウニがよく獲れるが、食べられるのはどの部分？</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハギ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イソ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋肉</t>
+    <rPh sb="0" eb="2">
+      <t>キンニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脳</t>
+    <rPh sb="0" eb="1">
+      <t>ノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卵巣・精巣</t>
+    <rPh sb="0" eb="2">
+      <t>ランソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私たちが普段食べているウニは卵巣と精巣で、ウニ１つにつき５枚入っている。なお、萩でよく食べられるウニはムラサキウニ、アカウニ、バフンウニの３種類。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタセィ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フダn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ランソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイソウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>174.漢字で「海鼠」と書き、萩の漁業者の間で「たぁらご（俵子）」とよばれているものは何？</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ギョギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナマコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬の味覚として特に親しまれているのはマナマコという種類。なかでも赤みを帯び高級とされる「赤なまこ」が萩ではよく獲れる。</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トクニ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アカミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オビ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">アカナマコ </t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>トレル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>179.世界で見島にしか住んでいないため市の天然記念物に指定されているタダムシオイは何の仲間？</t>
+    <rPh sb="4" eb="6">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">シノ </t>
+    </rPh>
+    <rPh sb="22" eb="27">
+      <t>テンネンキネンブテ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナンノ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタツムリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナメクジはカタツムリと共に、陸上に住む軟体動物。また、貝殻を持たない巻き貝の仲間。</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">トモニ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リクジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">スム </t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ナンタイドウブテゥ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイガラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モタナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マキガイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>184.萩には何種類の昆虫が住んでいる？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギニ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ナンセィウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コンチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スンデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500種</t>
+    <rPh sb="3" eb="4">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000種</t>
+    <rPh sb="4" eb="5">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000種</t>
+    <rPh sb="4" eb="5">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県内では平成11年（1999年）の時点で約6500種が記録され、そのうち約4000種が萩に生息していると見積もられている。</t>
+    <rPh sb="0" eb="1">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン)</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジテn</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キロクサル</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">ヤク </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ミツモラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>187.次のグループの昆虫のうち、萩に体が世界一小さい種類がいるのはどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コンチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">カラダ </t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チイサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トンボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッチョウトンボという、体長2cmにしかならない世界一小さなトンボがしないの小木原などで確認されている。</t>
+    <rPh sb="12" eb="14">
+      <t>タイチョウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>チイサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>188.昭和40年（1995年）代の萩で、子どもたちが駆除のアルバイトをしていた夏みかんの害虫は何？</t>
+    <rPh sb="4" eb="6">
+      <t>ショウワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クジョ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナニ?</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴマダラカマキリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カイガラムシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アゲハチョウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供たちが夏みかん畑で成虫を捕まえ、その頭を紐に通して農協に持ち込むと、頭数分の代金がもらえた。</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナツミカn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカマエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ノウキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モティ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>トウスウブ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダイキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>190.ミカドアゲハの名前にはなぜ「帝（みかど）」がついている？</t>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神社の境内でよく見られるため</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古都によく見られるため</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コト </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皇族が発見したため</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このチョウは幼虫の餌となるオガタマノキやタイサンボクといった木が多く生えている神社の境内などによくみられるため、「帝揚羽」と名付けられた。</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エサ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジンジャ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケイダイ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t xml:space="preserve">ミカドアゲハ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ナヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>192.萩には「日本の国蝶」とされるチョウが生息しているが、それは何？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コクチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギフチョウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミカドアゲハ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオムラサキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本国内に広く分布し、体が大きくて害虫でないことを理由に、昭和32年（1957年）の日本昆虫学会で国蝶に選ばれた。萩市では須佐地域などで、7月頃に成虫を見ることができる。</t>
+    <rPh sb="0" eb="1">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオキク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガッカイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コクチョウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>エラバレ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>スサチイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t xml:space="preserve">ゴロ </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セイチュウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ミルコテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>193.次の中で最も早く鳴きはじめるセミはどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハヤク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナキハジメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニイニイゼミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クマゼミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アブラゼミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩ではまず6月下旬からニイニイゼミ鳴きはじめ、次いで7月上旬からアブラゼミ、7月中旬からクマゼミと続く。セミの鳴き始めの時期は地域によって異なり、気候の違いや変動を知る手がかりにもなっている。</t>
+    <rPh sb="7" eb="9">
+      <t>ゲジュn</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナキハジメ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ツイデ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナキハジメ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>コトナリ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キコウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>チガイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>196.萩に見られるハチで最も危険性（攻撃性や毒性）が高い種類はどれ？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギニ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アシナガバチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スズメバチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クマバチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スズメバチは自分から黒い物に襲いかかってくるいほど攻撃性が強く、死者も出す。アシナガバチは刺激しなければ刺さないがショック死の例があり、注意が必要。クマバチはよほど刺激しない限り襲ってこない。</t>
+    <rPh sb="6" eb="8">
+      <t>ジブn</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オソイカカt</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツヨク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シセィア</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダス</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シゲキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ササナ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オソッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>197.「市の生物」されている蛍には色々な種類がある。市内で最も放流・保護され親しまれている種類はどれ？</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">シノ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイブテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シナイ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲンジボタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘイケボタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒメボタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>萩を含め全国的に最も親しまれているのは、体長1.5cmになるゲンジボタル。ヘイケボタルやヒメボタルはもっと小さく、萩にも生息しているが少ない。</t>
+    <rPh sb="4" eb="7">
+      <t>ゼンコク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モットモ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイチョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ハギニ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>スクナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>198.萩には県内有数のヒメボタルの発生地がある。このホタルはどのような点が珍しい？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギニ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ケn</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">メズラシイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川辺ではなく海辺に住む</t>
+    <rPh sb="0" eb="2">
+      <t>カワベデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川辺ではなく陸上に住む</t>
+    <rPh sb="0" eb="2">
+      <t>カワベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い光を出す</t>
+    <rPh sb="0" eb="1">
+      <t>アオイヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒメボタルは、ゲンジボタルやヘイケボタルのように幼虫時代を水中で過ごすことなく、一生を陸上ですこす。白っぽく強力な光を速く点滅させるため人気がある。萩では指月山で見ることができるが近年数が減っている。</t>
+    <rPh sb="24" eb="26">
+      <t>ヨウチュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スゴス</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イッセィオ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リクジョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シロッポ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t xml:space="preserve">ハヤク </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>テンメテゥ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ハギ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>シヅキ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ミル</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>キンネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200.萩を含む全国各地で、カブトムシやクワガタムシを見つけるにはどんな植物のまわりを探せば良い？</t>
+    <rPh sb="4" eb="5">
+      <t>ハギヲ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フクム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミツケルニハ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サガセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クヌギなどの落葉紅葉樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マツなどの常緑針葉樹</t>
+    <rPh sb="5" eb="10">
+      <t>ジョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツバキなどの常緑紅葉樹</t>
+    <rPh sb="6" eb="11">
+      <t>ジョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カブトムシやクワガタムシの仲間の多くはクヌギやコナラなどの落葉紅葉樹に集まり、その樹液を食べる。</t>
+    <rPh sb="13" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アツマリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,15 +7652,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,17 +7982,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A8EE5-B6EA-A843-98B7-82442A621DFF}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C89" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1"/>
-    <col min="2" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="111.28515625" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1049,16 +8001,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1069,16 +8021,16 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>44326</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>44430</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>44459</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -1089,16 +8041,16 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
@@ -1109,16 +8061,16 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -1129,16 +8081,16 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -1146,103 +8098,1903 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="E10">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>47</v>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="3">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68" s="3">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>344</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" s="3">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>354</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="3">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>383</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>392</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>407</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>412</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>417</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" s="3">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>427</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>432</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>437</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>442</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>447</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>452</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>462</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>467</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>472</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>477</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>482</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>487</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/自然200.xlsx.xlsx
+++ b/自然200.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mugisama/Desktop/HagiQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437A9DD-BF18-574A-8A4F-FAF3BC8FC993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2626D866-120D-FD46-BD3C-91842D81FF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="15720" xr2:uid="{5BAA29A8-4CC2-8346-A067-8C66BCB7BD3C}"/>
   </bookViews>
@@ -601,16 +601,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>明倫間の水蓮池</t>
-    <rPh sb="0" eb="3">
-      <t>メイリn</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>スイレn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>萩城跡の堀や水蓮池は歴史上の学術的価値が高い遺構として「史跡」に指定されている。</t>
     <rPh sb="4" eb="5">
       <t>ホリ</t>
@@ -7605,6 +7595,19 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>タベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明倫館の水蓮池</t>
+    <rPh sb="0" eb="2">
+      <t>メイリn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤカタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スイレn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7984,8 +7987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A8EE5-B6EA-A843-98B7-82442A621DFF}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C89" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8114,7 +8117,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8188,1813 +8191,1813 @@
         <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="3">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E50" s="3">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="E54" s="3">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="E55" s="3">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="E57" s="3">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E64" s="3">
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E65" s="3">
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="E67" s="3">
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="E68" s="3">
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="E76" s="3">
         <v>2</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>373</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E78" s="3">
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="E81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="E83" s="3">
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
+        <v>406</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="E84" s="3">
         <v>2</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="E85" s="3">
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>416</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="E86" s="3">
         <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
+        <v>421</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="E87" s="3">
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
+        <v>426</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="E88" s="3">
         <v>3</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
+        <v>431</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="E91" s="3">
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="E92" s="3">
         <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="E93" s="3">
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>456</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
+        <v>461</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="E95" s="3">
         <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
+        <v>466</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="E97" s="3">
         <v>2</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>476</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>481</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>486</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="E100" s="3">
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
